--- a/harana/datasets/BPSFH/16/chords.xlsx
+++ b/harana/datasets/BPSFH/16/chords.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiaoyu/Desktop/video_music/harana/harana/datasets/BPSFH/16/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225D4EEB-B7D1-9A40-B9BB-8084AFB09B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="184">
   <si>
     <t>G</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,24 +753,30 @@
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>5/4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -849,7 +852,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1126,19 +1129,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>-0.25</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>19</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>22</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>37</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>38</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>41</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>46</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>49</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>50</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>52</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>53</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>54</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>56</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>57</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>58</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>60</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>62</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>64</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>66</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>68</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>70</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>72</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>74</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>76</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>90</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>105</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>106</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>108</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>109</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>110</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>112</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>113</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>114</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>116</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>117</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>118</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>120</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>121</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>122</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>124</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>125</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>126</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>130</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>134</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>136</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>137</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>138</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>142</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>144</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>144.25</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>150</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>154</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>155</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>156</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>158</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>159</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>160</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>162</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>164</v>
       </c>
@@ -2598,19 +2601,19 @@
         <v>48</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>165</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>166</v>
       </c>
@@ -2644,19 +2647,19 @@
         <v>48</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>167</v>
       </c>
@@ -2670,16 +2673,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>168</v>
       </c>
@@ -2693,16 +2696,16 @@
         <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F68" s="1">
-        <v>0</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>169</v>
       </c>
@@ -2710,22 +2713,22 @@
         <v>170</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>170</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>171</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
@@ -2748,7 +2751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>171</v>
       </c>
@@ -2756,22 +2759,22 @@
         <v>172</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D71" s="1">
         <v>6</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>172</v>
       </c>
@@ -2779,22 +2782,22 @@
         <v>173</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D72" s="1">
         <v>2</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>173</v>
       </c>
@@ -2802,22 +2805,22 @@
         <v>174</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F73" s="1">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>174</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>176</v>
       </c>
@@ -2848,22 +2851,22 @@
         <v>178</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>178</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>180</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -2886,7 +2889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>180</v>
       </c>
@@ -2894,10 +2897,10 @@
         <v>182</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>32</v>
@@ -2906,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>182</v>
       </c>
@@ -2917,22 +2920,22 @@
         <v>184</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>184</v>
       </c>
@@ -2940,22 +2943,22 @@
         <v>185</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>185</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>186</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D80" s="1">
         <v>2</v>
@@ -2975,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>186</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>187</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
@@ -3001,7 +3004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>187</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>188</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -3024,7 +3027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>188</v>
       </c>
@@ -3032,22 +3035,22 @@
         <v>189</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D83" s="1">
         <v>4</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F83" s="1">
-        <v>1</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>189</v>
       </c>
@@ -3055,22 +3058,22 @@
         <v>190</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D84" s="1">
         <v>2</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F84" s="1">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>190</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>191</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D85" s="1">
         <v>5</v>
@@ -3093,7 +3096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>191</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>192</v>
       </c>
@@ -3124,22 +3127,22 @@
         <v>193</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>193</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>194</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>196</v>
       </c>
@@ -3208,7 +3211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>198</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>200</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>202</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>204</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>206</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>207</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>208</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>209</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>210</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>211</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>212</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>213</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>214</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>222</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>237</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>238</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>241</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>242</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>244</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>259</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>260</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>263</v>
       </c>
@@ -3714,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>264</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>267</v>
       </c>
@@ -3760,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>268</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>271</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>272</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>274</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>275</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>276</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>278</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>279</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>280</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>282</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>284</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>286</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>288</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>290</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>292</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>294</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>296</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>298</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>312</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>327</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>328</v>
       </c>
@@ -4243,7 +4246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>330</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>331</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>332</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>334</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>335</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>336</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>338</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>339</v>
       </c>
@@ -4427,7 +4430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>340</v>
       </c>
@@ -4450,7 +4453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>342</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>343</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>344</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>346</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>347</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>348</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>352</v>
       </c>
@@ -4611,7 +4614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>356</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>358</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>359</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>360</v>
       </c>
@@ -4703,7 +4706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>364</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>366</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>366.25</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>372</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>376</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>377</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>378</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>380</v>
       </c>
@@ -4887,7 +4890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>381</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>382</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>384</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>386</v>
       </c>
@@ -4967,19 +4970,19 @@
         <v>48</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" s="1">
+        <v>0</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F167" s="1">
-        <v>0</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>387</v>
       </c>
@@ -5002,7 +5005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>388</v>
       </c>
@@ -5013,19 +5016,19 @@
         <v>48</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F169" s="1">
-        <v>0</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>389</v>
       </c>
@@ -5039,16 +5042,16 @@
         <v>3</v>
       </c>
       <c r="E170" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F170" s="1">
-        <v>1</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>390</v>
       </c>
@@ -5062,16 +5065,16 @@
         <v>6</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0</v>
+      </c>
+      <c r="G171" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F171" s="1">
-        <v>0</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>391</v>
       </c>
@@ -5079,22 +5082,22 @@
         <v>392</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D172" s="1">
         <v>2</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F172" s="1">
-        <v>1</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>392</v>
       </c>
@@ -5102,7 +5105,7 @@
         <v>393</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D173" s="1">
         <v>5</v>
@@ -5117,7 +5120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>393</v>
       </c>
@@ -5125,22 +5128,22 @@
         <v>394</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D174" s="1">
         <v>6</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F174" s="1">
         <v>0</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>394</v>
       </c>
@@ -5148,22 +5151,22 @@
         <v>395</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D175" s="1">
         <v>2</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="G175" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F175" s="1">
-        <v>1</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>395</v>
       </c>
@@ -5171,22 +5174,22 @@
         <v>396</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D176" s="1">
         <v>5</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0</v>
+      </c>
+      <c r="G176" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F176" s="1">
-        <v>0</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>396</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>398</v>
       </c>
@@ -5217,22 +5220,22 @@
         <v>400</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D178" s="1">
         <v>5</v>
       </c>
       <c r="E178" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F178" s="1">
-        <v>0</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>400</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>402</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D179" s="1">
         <v>1</v>
@@ -5255,7 +5258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>402</v>
       </c>
@@ -5263,10 +5266,10 @@
         <v>404</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>32</v>
@@ -5275,10 +5278,10 @@
         <v>0</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>404</v>
       </c>
@@ -5286,22 +5289,22 @@
         <v>406</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D181" s="1">
         <v>3</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F181" s="1">
         <v>0</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>406</v>
       </c>
@@ -5309,22 +5312,22 @@
         <v>407</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F182" s="1">
-        <v>1</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>407</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>408</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D183" s="1">
         <v>2</v>
@@ -5344,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>408</v>
       </c>
@@ -5355,7 +5358,7 @@
         <v>409</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D184" s="1">
         <v>5</v>
@@ -5370,7 +5373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>409</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>410</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D185" s="1">
         <v>1</v>
@@ -5393,7 +5396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>410</v>
       </c>
@@ -5401,22 +5404,22 @@
         <v>411</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D186" s="1">
         <v>4</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F186" s="1">
-        <v>1</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>411</v>
       </c>
@@ -5424,22 +5427,22 @@
         <v>412</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F187" s="1">
-        <v>0</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>412</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>413</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D188" s="1">
         <v>5</v>
@@ -5462,7 +5465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>413</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>414</v>
       </c>
@@ -5493,22 +5496,22 @@
         <v>415</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D190" s="1">
         <v>2</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F190" s="1">
+        <v>1</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F190" s="1">
-        <v>1</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>415</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>416</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>418</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>420</v>
       </c>
@@ -5600,7 +5603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>422</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>424</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>426</v>
       </c>
@@ -5669,7 +5672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>428</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>429</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>430</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>431</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>432</v>
       </c>
@@ -5784,7 +5787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>433</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>434</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>435</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>436</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>444</v>
       </c>
@@ -5884,22 +5887,22 @@
         <v>458</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D207" s="1">
+        <v>1</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D207" s="1">
-        <v>1</v>
-      </c>
-      <c r="E207" s="1" t="s">
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F207" s="1">
-        <v>0</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>458</v>
       </c>
@@ -5907,22 +5910,22 @@
         <v>460</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D208" s="1">
+        <v>5</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D208" s="1">
-        <v>5</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F208" s="1">
         <v>3</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>460</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>462</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -5942,10 +5945,10 @@
         <v>1</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>462</v>
       </c>
@@ -5953,22 +5956,22 @@
         <v>464</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D210" s="1">
+        <v>5</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D210" s="1">
-        <v>5</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F210" s="1">
         <v>2</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>464</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>474</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D211" s="1">
         <v>1</v>
@@ -5991,7 +5994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>474</v>
       </c>
@@ -5999,22 +6002,22 @@
         <v>476</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D212" s="1">
         <v>5</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F212" s="1">
         <v>3</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>476</v>
       </c>
@@ -6022,22 +6025,22 @@
         <v>478</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F213" s="1">
+        <v>1</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D213" s="1">
-        <v>1</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F213" s="1">
-        <v>1</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>478</v>
       </c>
@@ -6045,22 +6048,22 @@
         <v>480</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D214" s="1">
         <v>5</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F214" s="1">
         <v>2</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>480</v>
       </c>
@@ -6068,13 +6071,13 @@
         <v>482</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D215" s="1">
-        <v>1</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="F215" s="1">
         <v>0</v>
@@ -6083,7 +6086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>482</v>
       </c>
@@ -6091,22 +6094,22 @@
         <v>484</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D216" s="1">
         <v>5</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F216" s="1">
         <v>3</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>484</v>
       </c>
@@ -6114,22 +6117,22 @@
         <v>486</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F217" s="1">
         <v>1</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>486</v>
       </c>
@@ -6137,22 +6140,22 @@
         <v>488</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D218" s="1">
         <v>5</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F218" s="1">
         <v>2</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>488</v>
       </c>
@@ -6160,13 +6163,13 @@
         <v>490</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F219" s="1">
         <v>0</v>
@@ -6175,7 +6178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>490</v>
       </c>
@@ -6183,22 +6186,22 @@
         <v>492</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D220" s="1">
+        <v>5</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D220" s="1">
-        <v>5</v>
-      </c>
-      <c r="E220" s="1" t="s">
+      <c r="F220" s="1">
+        <v>0</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F220" s="1">
-        <v>0</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>492</v>
       </c>
@@ -6206,13 +6209,13 @@
         <v>494</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F221" s="1">
         <v>0</v>
@@ -6221,7 +6224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>494</v>
       </c>
@@ -6229,22 +6232,22 @@
         <v>496</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D222" s="1">
+        <v>5</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D222" s="1">
-        <v>5</v>
-      </c>
-      <c r="E222" s="1" t="s">
+      <c r="F222" s="1">
+        <v>0</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F222" s="1">
-        <v>0</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>496</v>
       </c>
@@ -6252,13 +6255,13 @@
         <v>498</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F223" s="1">
         <v>0</v>
@@ -6267,7 +6270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>498</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>500</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D224" s="1">
         <v>4</v>
@@ -6287,10 +6290,10 @@
         <v>0</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>500</v>
       </c>
@@ -6298,22 +6301,22 @@
         <v>504</v>
       </c>
       <c r="C225" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D225" s="1">
+        <v>5</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D225" s="1">
-        <v>5</v>
-      </c>
-      <c r="E225" s="1" t="s">
+      <c r="F225" s="1">
+        <v>1</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F225" s="1">
-        <v>1</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>504</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>506</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -6336,7 +6339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>506</v>
       </c>
@@ -6344,22 +6347,22 @@
         <v>508</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D227" s="1">
         <v>5</v>
       </c>
       <c r="E227" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F227" s="1">
-        <v>0</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>508</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>510</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D228" s="1">
         <v>1</v>
@@ -6382,7 +6385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>510</v>
       </c>
@@ -6390,22 +6393,22 @@
         <v>512</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D229" s="1">
         <v>5</v>
       </c>
       <c r="E229" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+      <c r="G229" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F229" s="1">
-        <v>0</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>512</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>514</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D230" s="1">
         <v>1</v>
@@ -6428,7 +6431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>514</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>516</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D231" s="1">
         <v>4</v>
@@ -6448,10 +6451,10 @@
         <v>0</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>516</v>
       </c>
@@ -6459,22 +6462,22 @@
         <v>520</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D232" s="1">
         <v>5</v>
       </c>
       <c r="E232" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F232" s="1">
+        <v>1</v>
+      </c>
+      <c r="G232" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F232" s="1">
-        <v>1</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>520</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>522</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6497,7 +6500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>522</v>
       </c>
@@ -6505,22 +6508,22 @@
         <v>524</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D234" s="1">
         <v>5</v>
       </c>
       <c r="E234" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F234" s="1">
-        <v>0</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>524</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>526</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6543,7 +6546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>526</v>
       </c>
@@ -6551,22 +6554,22 @@
         <v>528</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D236" s="1">
         <v>5</v>
       </c>
       <c r="E236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0</v>
+      </c>
+      <c r="G236" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F236" s="1">
-        <v>0</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>528</v>
       </c>
@@ -6574,22 +6577,22 @@
         <v>532</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D237" s="1">
+        <v>5</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F237" s="1">
+        <v>1</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D237" s="1">
-        <v>5</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F237" s="1">
-        <v>1</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>532</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>534</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D238" s="1">
         <v>1</v>
@@ -6612,7 +6615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>534</v>
       </c>
@@ -6620,22 +6623,22 @@
         <v>536</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="E239" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1</v>
+      </c>
+      <c r="G239" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F239" s="1">
-        <v>1</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>536</v>
       </c>
@@ -6643,22 +6646,22 @@
         <v>537</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D240" s="1">
         <v>5</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F240" s="1">
         <v>0</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>537</v>
       </c>
@@ -6666,22 +6669,22 @@
         <v>538</v>
       </c>
       <c r="C241" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="E241" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="F241" s="1">
+        <v>1</v>
+      </c>
+      <c r="G241" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F241" s="1">
-        <v>1</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>538</v>
       </c>
@@ -6689,22 +6692,22 @@
         <v>539</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D242" s="1">
         <v>5</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F242" s="1">
         <v>0</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>539</v>
       </c>
@@ -6712,22 +6715,22 @@
         <v>540</v>
       </c>
       <c r="C243" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="E243" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="F243" s="1">
+        <v>1</v>
+      </c>
+      <c r="G243" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F243" s="1">
-        <v>1</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>540</v>
       </c>
@@ -6735,22 +6738,22 @@
         <v>541</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D244" s="1">
         <v>5</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F244" s="1">
         <v>0</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>541</v>
       </c>
@@ -6758,22 +6761,22 @@
         <v>542</v>
       </c>
       <c r="C245" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="E245" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="F245" s="1">
+        <v>1</v>
+      </c>
+      <c r="G245" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F245" s="1">
-        <v>1</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>542</v>
       </c>
@@ -6781,22 +6784,22 @@
         <v>543</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D246" s="1">
         <v>5</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F246" s="1">
         <v>0</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>543</v>
       </c>
@@ -6804,22 +6807,22 @@
         <v>544</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="E247" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E247" s="1" t="s">
+      <c r="F247" s="1">
+        <v>1</v>
+      </c>
+      <c r="G247" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F247" s="1">
-        <v>1</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>544</v>
       </c>
@@ -6827,22 +6830,22 @@
         <v>552</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D248" s="1">
         <v>5</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F248" s="1">
         <v>0</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>552</v>
       </c>
@@ -6850,22 +6853,22 @@
         <v>584</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D249" s="1">
         <v>5</v>
       </c>
       <c r="E249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F249" s="1">
-        <v>0</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>584</v>
       </c>
@@ -6873,22 +6876,22 @@
         <v>586</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D250" s="1">
         <v>7</v>
       </c>
       <c r="E250" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F250" s="1">
-        <v>0</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>586</v>
       </c>
@@ -6896,22 +6899,22 @@
         <v>588</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D251" s="1">
         <v>5</v>
       </c>
       <c r="E251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0</v>
+      </c>
+      <c r="G251" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F251" s="1">
-        <v>0</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>588</v>
       </c>
@@ -6919,22 +6922,22 @@
         <v>590</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D252" s="1">
         <v>7</v>
       </c>
       <c r="E252" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F252" s="1">
+        <v>0</v>
+      </c>
+      <c r="G252" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F252" s="1">
-        <v>0</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>590</v>
       </c>
@@ -6942,22 +6945,22 @@
         <v>592</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D253" s="1">
         <v>5</v>
       </c>
       <c r="E253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0</v>
+      </c>
+      <c r="G253" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F253" s="1">
-        <v>0</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>592</v>
       </c>
@@ -6965,22 +6968,22 @@
         <v>594</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D254" s="1">
         <v>7</v>
       </c>
       <c r="E254" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F254" s="1">
-        <v>0</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>594</v>
       </c>
@@ -6988,22 +6991,22 @@
         <v>600</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D255" s="1">
         <v>5</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0</v>
+      </c>
+      <c r="G255" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F255" s="1">
-        <v>0</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>600</v>
       </c>
@@ -7011,22 +7014,22 @@
         <v>604</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D256" s="1">
         <v>7</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F256" s="1">
         <v>3</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>604</v>
       </c>
@@ -7034,22 +7037,22 @@
         <v>608</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D257" s="4">
         <v>5</v>
       </c>
       <c r="E257" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F257" s="4">
+        <v>0</v>
+      </c>
+      <c r="G257" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F257" s="4">
-        <v>0</v>
-      </c>
-      <c r="G257" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>608</v>
       </c>
@@ -7057,13 +7060,13 @@
         <v>623</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F258" s="1">
         <v>0</v>
@@ -7072,7 +7075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>623</v>
       </c>
@@ -7080,22 +7083,22 @@
         <v>624</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D259" s="1">
         <v>2</v>
       </c>
       <c r="E259" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0</v>
+      </c>
+      <c r="G259" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F259" s="1">
-        <v>0</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>624</v>
       </c>
@@ -7103,22 +7106,22 @@
         <v>627</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F260" s="1">
         <v>2</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>627</v>
       </c>
@@ -7126,22 +7129,22 @@
         <v>628</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D261" s="1">
         <v>5</v>
       </c>
       <c r="E261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0</v>
+      </c>
+      <c r="G261" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F261" s="1">
-        <v>0</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>628</v>
       </c>
@@ -7149,13 +7152,13 @@
         <v>630</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F262" s="1">
         <v>0</v>
@@ -7164,7 +7167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>630</v>
       </c>
@@ -7172,22 +7175,22 @@
         <v>631</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D263" s="1">
         <v>2</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F263" s="1">
+        <v>1</v>
+      </c>
+      <c r="G263" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F263" s="1">
-        <v>1</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>631</v>
       </c>
@@ -7195,7 +7198,7 @@
         <v>632</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D264" s="1">
         <v>2</v>
@@ -7207,10 +7210,10 @@
         <v>0</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>632</v>
       </c>
@@ -7218,22 +7221,22 @@
         <v>635</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F265" s="1">
         <v>2</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>635</v>
       </c>
@@ -7241,22 +7244,22 @@
         <v>636</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D266" s="1">
         <v>5</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F266" s="1">
         <v>0</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>636</v>
       </c>
@@ -7264,13 +7267,13 @@
         <v>638</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D267" s="1">
         <v>1</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F267" s="1">
         <v>0</v>
@@ -7279,7 +7282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>638</v>
       </c>
@@ -7287,22 +7290,22 @@
         <v>639</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
       </c>
       <c r="E268" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F268" s="1">
+        <v>1</v>
+      </c>
+      <c r="G268" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F268" s="1">
-        <v>1</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>639</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>640</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D269" s="1">
         <v>2</v>
@@ -7322,10 +7325,10 @@
         <v>0</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>640</v>
       </c>
@@ -7333,22 +7336,22 @@
         <v>642</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D270" s="1">
         <v>5</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F270" s="1">
         <v>0</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>642</v>
       </c>
@@ -7356,7 +7359,7 @@
         <v>643</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D271" s="1">
         <v>4</v>
@@ -7371,7 +7374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>643</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>644</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>27</v>
@@ -7394,7 +7397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>644</v>
       </c>
@@ -7402,22 +7405,22 @@
         <v>646</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D273" s="1">
         <v>5</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F273" s="1">
         <v>0</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>646</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>647</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D274" s="1">
         <v>4</v>
@@ -7440,7 +7443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>647</v>
       </c>
@@ -7448,7 +7451,7 @@
         <v>648</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>27</v>
@@ -7463,7 +7466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>648</v>
       </c>
@@ -7471,22 +7474,22 @@
         <v>650</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D276" s="1">
         <v>5</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F276" s="1">
         <v>0</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>650</v>
       </c>
@@ -7494,7 +7497,7 @@
         <v>651</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D277" s="1">
         <v>4</v>
@@ -7509,7 +7512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>651</v>
       </c>
@@ -7517,7 +7520,7 @@
         <v>652</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>27</v>
@@ -7532,7 +7535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>652</v>
       </c>
@@ -7540,22 +7543,22 @@
         <v>656</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D279" s="1">
         <v>5</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F279" s="1">
         <v>0</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>656</v>
       </c>
@@ -7563,22 +7566,22 @@
         <v>660</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D280" s="1">
         <v>1</v>
       </c>
       <c r="E280" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F280" s="1">
+        <v>0</v>
+      </c>
+      <c r="G280" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F280" s="1">
-        <v>0</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>660</v>
       </c>
@@ -7586,22 +7589,22 @@
         <v>664</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D281" s="1">
         <v>5</v>
       </c>
       <c r="E281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F281" s="1">
+        <v>0</v>
+      </c>
+      <c r="G281" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F281" s="1">
-        <v>0</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>664</v>
       </c>
@@ -7609,22 +7612,22 @@
         <v>668</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D282" s="1">
         <v>1</v>
       </c>
       <c r="E282" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F282" s="1">
+        <v>0</v>
+      </c>
+      <c r="G282" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F282" s="1">
-        <v>0</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>668</v>
       </c>
@@ -7632,22 +7635,22 @@
         <v>670</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D283" s="1">
         <v>5</v>
       </c>
       <c r="E283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F283" s="1">
+        <v>0</v>
+      </c>
+      <c r="G283" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F283" s="1">
-        <v>0</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>670</v>
       </c>
@@ -7655,22 +7658,22 @@
         <v>670.25</v>
       </c>
       <c r="C284" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D284" s="1">
+        <v>1</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D284" s="1">
-        <v>1</v>
-      </c>
-      <c r="E284" s="1" t="s">
+      <c r="F284" s="1">
+        <v>0</v>
+      </c>
+      <c r="G284" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F284" s="1">
-        <v>0</v>
-      </c>
-      <c r="G284" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>670.25</v>
       </c>
@@ -7678,7 +7681,7 @@
         <v>676</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D285" s="1">
         <v>1</v>
@@ -7693,7 +7696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>676</v>
       </c>
@@ -7701,22 +7704,22 @@
         <v>680</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D286" s="1">
         <v>5</v>
       </c>
       <c r="E286" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F286" s="1">
+        <v>1</v>
+      </c>
+      <c r="G286" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F286" s="1">
-        <v>1</v>
-      </c>
-      <c r="G286" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>680</v>
       </c>
@@ -7724,7 +7727,7 @@
         <v>683</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D287" s="1">
         <v>1</v>
@@ -7739,7 +7742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>683</v>
       </c>
@@ -7747,22 +7750,22 @@
         <v>684</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D288" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E288" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F288" s="1">
         <v>2</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>684</v>
       </c>
@@ -7770,22 +7773,22 @@
         <v>686</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D289" s="1">
         <v>5</v>
       </c>
       <c r="E289" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F289" s="1">
+        <v>1</v>
+      </c>
+      <c r="G289" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F289" s="1">
-        <v>1</v>
-      </c>
-      <c r="G289" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>686</v>
       </c>
@@ -7793,22 +7796,22 @@
         <v>688</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D290" s="1">
         <v>5</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F290" s="1">
         <v>3</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>688</v>
       </c>
@@ -7816,13 +7819,13 @@
         <v>692</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D291" s="1">
         <v>1</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F291" s="1">
         <v>0</v>
@@ -7831,7 +7834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>692</v>
       </c>
@@ -7839,22 +7842,22 @@
         <v>694</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D292" s="1">
         <v>5</v>
       </c>
       <c r="E292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F292" s="1">
+        <v>0</v>
+      </c>
+      <c r="G292" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F292" s="1">
-        <v>0</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>694</v>
       </c>
@@ -7862,22 +7865,22 @@
         <v>695</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D293" s="1">
         <v>5</v>
       </c>
       <c r="E293" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F293" s="1">
+        <v>1</v>
+      </c>
+      <c r="G293" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F293" s="1">
-        <v>1</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>695</v>
       </c>
@@ -7885,22 +7888,22 @@
         <v>696</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D294" s="1">
         <v>5</v>
       </c>
       <c r="E294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F294" s="1">
+        <v>0</v>
+      </c>
+      <c r="G294" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F294" s="1">
-        <v>0</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>696</v>
       </c>
@@ -7908,13 +7911,13 @@
         <v>700</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D295" s="1">
         <v>1</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F295" s="1">
         <v>0</v>
@@ -7923,7 +7926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>700</v>
       </c>
@@ -7931,22 +7934,22 @@
         <v>702</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D296" s="1">
         <v>5</v>
       </c>
       <c r="E296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0</v>
+      </c>
+      <c r="G296" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F296" s="1">
-        <v>0</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>702</v>
       </c>
@@ -7954,13 +7957,13 @@
         <v>708</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D297" s="1">
         <v>1</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F297" s="1">
         <v>0</v>
@@ -7969,7 +7972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>708</v>
       </c>
@@ -7977,22 +7980,22 @@
         <v>712</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D298" s="1">
         <v>5</v>
       </c>
       <c r="E298" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F298" s="1">
+        <v>1</v>
+      </c>
+      <c r="G298" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F298" s="1">
-        <v>1</v>
-      </c>
-      <c r="G298" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>712</v>
       </c>
@@ -8000,13 +8003,13 @@
         <v>713</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D299" s="1">
         <v>1</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F299" s="1">
         <v>0</v>
@@ -8015,7 +8018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>713</v>
       </c>
@@ -8023,22 +8026,22 @@
         <v>714</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D300" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E300" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F300" s="1">
         <v>2</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>714</v>
       </c>
@@ -8046,22 +8049,22 @@
         <v>716</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D301" s="1">
         <v>5</v>
       </c>
       <c r="E301" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F301" s="1">
+        <v>1</v>
+      </c>
+      <c r="G301" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F301" s="1">
-        <v>1</v>
-      </c>
-      <c r="G301" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>716</v>
       </c>
@@ -8069,7 +8072,7 @@
         <v>717</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D302" s="1">
         <v>1</v>
@@ -8084,7 +8087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>717</v>
       </c>
@@ -8092,22 +8095,22 @@
         <v>718</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D303" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F303" s="1">
         <v>2</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>718</v>
       </c>
@@ -8115,22 +8118,22 @@
         <v>720</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D304" s="1">
         <v>5</v>
       </c>
       <c r="E304" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F304" s="1">
+        <v>1</v>
+      </c>
+      <c r="G304" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F304" s="1">
-        <v>1</v>
-      </c>
-      <c r="G304" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>720</v>
       </c>
@@ -8138,7 +8141,7 @@
         <v>722</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D305" s="1">
         <v>1</v>
@@ -8153,7 +8156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>722</v>
       </c>
@@ -8161,22 +8164,22 @@
         <v>723</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D306" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F306" s="1">
+        <v>0</v>
+      </c>
+      <c r="G306" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E306" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F306" s="1">
-        <v>0</v>
-      </c>
-      <c r="G306" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>723</v>
       </c>
@@ -8184,22 +8187,22 @@
         <v>724</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D307" s="1">
         <v>4</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F307" s="1">
         <v>1</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>724</v>
       </c>
@@ -8207,22 +8210,22 @@
         <v>725</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D308" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E308" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E308" s="1" t="s">
+      <c r="F308" s="1">
+        <v>0</v>
+      </c>
+      <c r="G308" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F308" s="1">
-        <v>0</v>
-      </c>
-      <c r="G308" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>725</v>
       </c>
@@ -8230,7 +8233,7 @@
         <v>726</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D309" s="1">
         <v>3</v>
@@ -8242,10 +8245,10 @@
         <v>1</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>726</v>
       </c>
@@ -8253,22 +8256,22 @@
         <v>727</v>
       </c>
       <c r="C310" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="E310" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F310" s="1">
+        <v>0</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E310" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F310" s="1">
-        <v>0</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>727</v>
       </c>
@@ -8276,22 +8279,22 @@
         <v>728</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D311" s="1">
         <v>2</v>
       </c>
       <c r="E311" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F311" s="1">
+        <v>1</v>
+      </c>
+      <c r="G311" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F311" s="1">
-        <v>1</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>728</v>
       </c>
@@ -8299,22 +8302,22 @@
         <v>729</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D312" s="1">
         <v>5</v>
       </c>
       <c r="E312" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F312" s="1">
+        <v>0</v>
+      </c>
+      <c r="G312" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F312" s="1">
-        <v>0</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>729</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>730</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D313" s="1">
         <v>6</v>
@@ -8334,10 +8337,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>730</v>
       </c>
@@ -8345,22 +8348,22 @@
         <v>731</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D314" s="1">
         <v>2</v>
       </c>
       <c r="E314" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F314" s="1">
+        <v>1</v>
+      </c>
+      <c r="G314" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F314" s="1">
-        <v>1</v>
-      </c>
-      <c r="G314" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>731</v>
       </c>
@@ -8368,22 +8371,22 @@
         <v>732</v>
       </c>
       <c r="C315" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D315" s="1">
+        <v>5</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F315" s="1">
+        <v>0</v>
+      </c>
+      <c r="G315" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D315" s="1">
-        <v>5</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F315" s="1">
-        <v>0</v>
-      </c>
-      <c r="G315" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>732</v>
       </c>
@@ -8391,13 +8394,13 @@
         <v>734</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D316" s="1">
         <v>1</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F316" s="1">
         <v>0</v>
@@ -8406,7 +8409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>734</v>
       </c>
@@ -8414,22 +8417,22 @@
         <v>736</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D317" s="1">
         <v>5</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F317" s="1">
         <v>0</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>736</v>
       </c>
@@ -8437,13 +8440,13 @@
         <v>738</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D318" s="1">
         <v>1</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F318" s="1">
         <v>0</v>
@@ -8452,7 +8455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>738</v>
       </c>
@@ -8460,22 +8463,22 @@
         <v>740</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D319" s="1">
         <v>5</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F319" s="1">
         <v>0</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>740</v>
       </c>
@@ -8483,13 +8486,13 @@
         <v>742</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D320" s="1">
         <v>1</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F320" s="1">
         <v>0</v>
@@ -8498,7 +8501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>742</v>
       </c>
@@ -8506,22 +8509,22 @@
         <v>743</v>
       </c>
       <c r="C321" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F321" s="1">
+        <v>1</v>
+      </c>
+      <c r="G321" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D321" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F321" s="1">
-        <v>1</v>
-      </c>
-      <c r="G321" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>743</v>
       </c>
@@ -8529,22 +8532,22 @@
         <v>744</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D322" s="1">
         <v>4</v>
       </c>
       <c r="E322" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F322" s="1">
+        <v>0</v>
+      </c>
+      <c r="G322" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F322" s="1">
-        <v>0</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>744</v>
       </c>
@@ -8552,22 +8555,22 @@
         <v>745</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D323" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E323" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E323" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F323" s="1">
         <v>1</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>745</v>
       </c>
@@ -8575,22 +8578,22 @@
         <v>746</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D324" s="1">
         <v>3</v>
       </c>
       <c r="E324" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F324" s="1">
+        <v>0</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F324" s="1">
-        <v>0</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>746</v>
       </c>
@@ -8598,22 +8601,22 @@
         <v>747</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D325" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E325" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E325" s="1" t="s">
+      <c r="F325" s="1">
+        <v>1</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F325" s="1">
-        <v>1</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>747</v>
       </c>
@@ -8621,7 +8624,7 @@
         <v>748</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D326" s="1">
         <v>2</v>
@@ -8633,10 +8636,10 @@
         <v>0</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>748</v>
       </c>
@@ -8644,22 +8647,22 @@
         <v>749</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D327" s="1">
         <v>5</v>
       </c>
       <c r="E327" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F327" s="1">
+        <v>1</v>
+      </c>
+      <c r="G327" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F327" s="1">
-        <v>1</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>749</v>
       </c>
@@ -8667,13 +8670,13 @@
         <v>750</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D328" s="1">
         <v>1</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F328" s="1">
         <v>0</v>
@@ -8682,7 +8685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>750</v>
       </c>
@@ -8690,22 +8693,22 @@
         <v>751</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D329" s="1">
         <v>2</v>
       </c>
       <c r="E329" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F329" s="1">
+        <v>1</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F329" s="1">
-        <v>1</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>751</v>
       </c>
@@ -8713,22 +8716,22 @@
         <v>752</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D330" s="1">
         <v>5</v>
       </c>
       <c r="E330" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F330" s="1">
+        <v>0</v>
+      </c>
+      <c r="G330" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F330" s="1">
-        <v>0</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>752</v>
       </c>
@@ -8736,13 +8739,13 @@
         <v>754</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D331" s="1">
         <v>1</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F331" s="1">
         <v>0</v>
@@ -8751,7 +8754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>754</v>
       </c>
@@ -8759,22 +8762,22 @@
         <v>756</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D332" s="1">
         <v>5</v>
       </c>
       <c r="E332" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F332" s="1">
+        <v>0</v>
+      </c>
+      <c r="G332" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F332" s="1">
-        <v>0</v>
-      </c>
-      <c r="G332" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>756</v>
       </c>
@@ -8782,7 +8785,7 @@
         <v>758</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D333" s="1">
         <v>1</v>
@@ -8797,7 +8800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>758</v>
       </c>
@@ -8805,22 +8808,22 @@
         <v>760</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D334" s="1">
         <v>5</v>
       </c>
       <c r="E334" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F334" s="1">
+        <v>0</v>
+      </c>
+      <c r="G334" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F334" s="1">
-        <v>0</v>
-      </c>
-      <c r="G334" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>760</v>
       </c>
@@ -8828,13 +8831,13 @@
         <v>762</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D335" s="1">
         <v>1</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F335" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>762</v>
       </c>
@@ -8851,22 +8854,22 @@
         <v>764</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D336" s="1">
         <v>5</v>
       </c>
       <c r="E336" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F336" s="1">
+        <v>0</v>
+      </c>
+      <c r="G336" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F336" s="1">
-        <v>0</v>
-      </c>
-      <c r="G336" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>764</v>
       </c>
@@ -8874,13 +8877,13 @@
         <v>765</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D337" s="1">
         <v>1</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F337" s="1">
         <v>0</v>
@@ -8889,7 +8892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>765</v>
       </c>
@@ -8897,22 +8900,22 @@
         <v>766</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D338" s="1">
         <v>5</v>
       </c>
       <c r="E338" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F338" s="1">
+        <v>0</v>
+      </c>
+      <c r="G338" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F338" s="1">
-        <v>0</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>766</v>
       </c>
@@ -8920,13 +8923,13 @@
         <v>767</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D339" s="1">
         <v>1</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F339" s="1">
         <v>0</v>
@@ -8935,7 +8938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>767</v>
       </c>
@@ -8943,22 +8946,22 @@
         <v>768</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D340" s="1">
         <v>5</v>
       </c>
       <c r="E340" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F340" s="1">
+        <v>0</v>
+      </c>
+      <c r="G340" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F340" s="1">
-        <v>0</v>
-      </c>
-      <c r="G340" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>768</v>
       </c>
@@ -8966,13 +8969,13 @@
         <v>769</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D341" s="1">
         <v>1</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F341" s="1">
         <v>0</v>
@@ -8981,7 +8984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>769</v>
       </c>
@@ -8989,22 +8992,22 @@
         <v>770</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D342" s="1">
         <v>5</v>
       </c>
       <c r="E342" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F342" s="1">
+        <v>0</v>
+      </c>
+      <c r="G342" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F342" s="1">
-        <v>0</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>770</v>
       </c>
@@ -9012,13 +9015,13 @@
         <v>771</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D343" s="1">
         <v>1</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F343" s="1">
         <v>0</v>
@@ -9027,7 +9030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>771</v>
       </c>
@@ -9035,22 +9038,22 @@
         <v>772</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D344" s="1">
         <v>5</v>
       </c>
       <c r="E344" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F344" s="1">
+        <v>0</v>
+      </c>
+      <c r="G344" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F344" s="1">
-        <v>0</v>
-      </c>
-      <c r="G344" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>772</v>
       </c>
@@ -9058,13 +9061,13 @@
         <v>782</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D345" s="1">
         <v>1</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F345" s="1">
         <v>0</v>
@@ -9073,7 +9076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>782</v>
       </c>
@@ -9081,22 +9084,22 @@
         <v>784</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D346" s="1">
         <v>5</v>
       </c>
       <c r="E346" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F346" s="1">
+        <v>0</v>
+      </c>
+      <c r="G346" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F346" s="1">
-        <v>0</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>784</v>
       </c>
@@ -9104,13 +9107,13 @@
         <v>786</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D347" s="1">
         <v>1</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F347" s="1">
         <v>0</v>
@@ -9119,7 +9122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>786</v>
       </c>
@@ -9127,22 +9130,22 @@
         <v>788</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D348" s="1">
         <v>5</v>
       </c>
       <c r="E348" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F348" s="1">
+        <v>0</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F348" s="1">
-        <v>0</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>788</v>
       </c>
@@ -9150,13 +9153,13 @@
         <v>790</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D349" s="1">
         <v>1</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F349" s="1">
         <v>0</v>
@@ -9165,7 +9168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>790</v>
       </c>
@@ -9173,22 +9176,22 @@
         <v>792</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D350" s="1">
         <v>5</v>
       </c>
       <c r="E350" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F350" s="1">
+        <v>0</v>
+      </c>
+      <c r="G350" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F350" s="1">
-        <v>0</v>
-      </c>
-      <c r="G350" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>792</v>
       </c>
@@ -9196,13 +9199,13 @@
         <v>794</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D351" s="1">
         <v>1</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F351" s="1">
         <v>0</v>
@@ -9211,7 +9214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>794</v>
       </c>
@@ -9219,22 +9222,22 @@
         <v>796</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D352" s="1">
         <v>5</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F352" s="1">
         <v>0</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>796</v>
       </c>
@@ -9242,13 +9245,13 @@
         <v>798</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D353" s="1">
         <v>1</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F353" s="1">
         <v>0</v>
@@ -9257,7 +9260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>798</v>
       </c>
@@ -9265,22 +9268,22 @@
         <v>812</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D354" s="1">
         <v>5</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F354" s="1">
         <v>0</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>812</v>
       </c>
@@ -9288,22 +9291,22 @@
         <v>824</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D355" s="1">
         <v>5</v>
       </c>
       <c r="E355" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F355" s="1">
+        <v>0</v>
+      </c>
+      <c r="G355" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F355" s="1">
-        <v>0</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>824</v>
       </c>
@@ -9311,13 +9314,13 @@
         <v>828</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D356" s="1">
         <v>1</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F356" s="1">
         <v>0</v>
@@ -9326,7 +9329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>828</v>
       </c>
@@ -9334,22 +9337,22 @@
         <v>832</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D357" s="1">
         <v>5</v>
       </c>
       <c r="E357" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F357" s="1">
+        <v>0</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F357" s="1">
-        <v>0</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>832</v>
       </c>
@@ -9357,13 +9360,13 @@
         <v>836</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D358" s="1">
         <v>1</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F358" s="1">
         <v>0</v>
@@ -9372,7 +9375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>836</v>
       </c>
@@ -9380,22 +9383,22 @@
         <v>840</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D359" s="1">
         <v>5</v>
       </c>
       <c r="E359" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F359" s="1">
+        <v>0</v>
+      </c>
+      <c r="G359" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F359" s="1">
-        <v>0</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>840</v>
       </c>
@@ -9403,13 +9406,13 @@
         <v>844</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D360" s="1">
         <v>1</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F360" s="1">
         <v>0</v>
@@ -9418,7 +9421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>844</v>
       </c>
@@ -9426,22 +9429,22 @@
         <v>848</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D361" s="1">
         <v>5</v>
       </c>
       <c r="E361" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F361" s="1">
+        <v>0</v>
+      </c>
+      <c r="G361" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F361" s="1">
-        <v>0</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>848</v>
       </c>
@@ -9449,13 +9452,13 @@
         <v>852</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D362" s="1">
         <v>1</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F362" s="1">
         <v>0</v>
@@ -9464,7 +9467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>852</v>
       </c>
@@ -9472,22 +9475,22 @@
         <v>856</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D363" s="1">
         <v>5</v>
       </c>
       <c r="E363" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F363" s="1">
+        <v>0</v>
+      </c>
+      <c r="G363" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F363" s="1">
-        <v>0</v>
-      </c>
-      <c r="G363" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>856</v>
       </c>
@@ -9495,13 +9498,13 @@
         <v>860</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D364" s="1">
         <v>1</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F364" s="1">
         <v>0</v>
@@ -9510,7 +9513,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>860</v>
       </c>
@@ -9518,22 +9521,22 @@
         <v>864</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D365" s="1">
         <v>5</v>
       </c>
       <c r="E365" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F365" s="1">
+        <v>0</v>
+      </c>
+      <c r="G365" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F365" s="1">
-        <v>0</v>
-      </c>
-      <c r="G365" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>864</v>
       </c>
@@ -9541,13 +9544,13 @@
         <v>871.75</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D366" s="1">
         <v>1</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F366" s="1">
         <v>0</v>
